--- a/Project/data/357_Computer_Hardware_RFE_NBR_KNNR_TSOA_CO_SHAP_M_Nasirianfar_2.xlsx
+++ b/Project/data/357_Computer_Hardware_RFE_NBR_KNNR_TSOA_CO_SHAP_M_Nasirianfar_2.xlsx
@@ -18,6 +18,7 @@
     <sheet name="shap" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="RandomForest" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="RandomForest_RMSE_Array" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="NewData" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -110,7 +111,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill/>
     </fill>
@@ -197,6 +198,12 @@
         <bgColor rgb="00FADADD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -261,7 +268,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -351,6 +358,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5943,6 +5953,121 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="31" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="31" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" s="31" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D1" s="31" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="E1" s="31" t="inlineStr">
+        <is>
+          <t>Occupation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C2" s="23" t="inlineStr">
+        <is>
+          <t>Doe</t>
+        </is>
+      </c>
+      <c r="D2" s="23" t="n">
+        <v>28</v>
+      </c>
+      <c r="E2" s="23" t="inlineStr">
+        <is>
+          <t>Engineer</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="inlineStr">
+        <is>
+          <t>Jane</t>
+        </is>
+      </c>
+      <c r="C3" s="23" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D3" s="23" t="n">
+        <v>34</v>
+      </c>
+      <c r="E3" s="23" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="C4" s="23" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D4" s="23" t="n">
+        <v>25</v>
+      </c>
+      <c r="E4" s="23" t="inlineStr">
+        <is>
+          <t>Designer</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -5955,7 +6080,7 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="9.1640625" customWidth="1" style="18" min="1" max="1"/>
     <col width="9.1640625" customWidth="1" style="18" min="2" max="16384"/>
@@ -10113,7 +10238,7 @@
       <selection activeCell="Z175" sqref="Z175:Z176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="9.1640625" customWidth="1" style="18" min="1" max="11"/>
     <col width="19.5" bestFit="1" customWidth="1" style="18" min="12" max="12"/>
@@ -19721,7 +19846,7 @@
       <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="9.1640625" customWidth="1" style="18" min="1" max="10"/>
     <col width="19.5" bestFit="1" customWidth="1" style="18" min="11" max="11"/>
@@ -37486,7 +37611,7 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="4.5" bestFit="1" customWidth="1" style="18" min="1" max="1"/>
     <col width="12.1640625" bestFit="1" customWidth="1" style="18" min="2" max="2"/>
@@ -37634,7 +37759,7 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="34.83203125" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="33.6640625" bestFit="1" customWidth="1" min="5" max="5"/>
